--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.29679832856509</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H2">
-        <v>0.29679832856509</v>
+        <v>1.172338</v>
       </c>
       <c r="I2">
-        <v>0.2533875075935505</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J2">
-        <v>0.2533875075935505</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.1183878503244</v>
+        <v>31.464649</v>
       </c>
       <c r="N2">
-        <v>31.1183878503244</v>
+        <v>94.393947</v>
       </c>
       <c r="O2">
-        <v>0.5463446362912538</v>
+        <v>0.5474848135431929</v>
       </c>
       <c r="P2">
-        <v>0.5463446362912538</v>
+        <v>0.547967202152804</v>
       </c>
       <c r="Q2">
-        <v>9.235885501616485</v>
+        <v>12.29573455978733</v>
       </c>
       <c r="R2">
-        <v>9.235885501616485</v>
+        <v>110.661611038086</v>
       </c>
       <c r="S2">
-        <v>0.1384369056769457</v>
+        <v>0.1316910154391675</v>
       </c>
       <c r="T2">
-        <v>0.1384369056769457</v>
+        <v>0.1400213374328372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.29679832856509</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H3">
-        <v>0.29679832856509</v>
+        <v>1.172338</v>
       </c>
       <c r="I3">
-        <v>0.2533875075935505</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J3">
-        <v>0.2533875075935505</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.8390448455744</v>
+        <v>25.85484366666666</v>
       </c>
       <c r="N3">
-        <v>25.8390448455744</v>
+        <v>77.56453099999999</v>
       </c>
       <c r="O3">
-        <v>0.4536553637087461</v>
+        <v>0.4498742148381634</v>
       </c>
       <c r="P3">
-        <v>0.4536553637087461</v>
+        <v>0.4502705987955396</v>
       </c>
       <c r="Q3">
-        <v>7.668985321884885</v>
+        <v>10.10353857149756</v>
       </c>
       <c r="R3">
-        <v>7.668985321884885</v>
+        <v>90.931847143478</v>
       </c>
       <c r="S3">
-        <v>0.1149506019166048</v>
+        <v>0.1082119370371575</v>
       </c>
       <c r="T3">
-        <v>0.1149506019166048</v>
+        <v>0.115057053054162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.651628871708973</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H4">
-        <v>0.651628871708973</v>
+        <v>1.172338</v>
       </c>
       <c r="I4">
-        <v>0.5563192234828349</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J4">
-        <v>0.5563192234828349</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>31.1183878503244</v>
+        <v>0.15178</v>
       </c>
       <c r="N4">
-        <v>31.1183878503244</v>
+        <v>0.30356</v>
       </c>
       <c r="O4">
-        <v>0.5463446362912538</v>
+        <v>0.002640971618643699</v>
       </c>
       <c r="P4">
-        <v>0.5463446362912538</v>
+        <v>0.001762199051656407</v>
       </c>
       <c r="Q4">
-        <v>20.2776399643091</v>
+        <v>0.05931248721333334</v>
       </c>
       <c r="R4">
-        <v>20.2776399643091</v>
+        <v>0.35587492328</v>
       </c>
       <c r="S4">
-        <v>0.3039420238155622</v>
+        <v>0.0006352545780299931</v>
       </c>
       <c r="T4">
-        <v>0.3039420238155622</v>
+        <v>0.0004502924026591667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +711,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.651628871708973</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H5">
-        <v>0.651628871708973</v>
+        <v>2.466364</v>
       </c>
       <c r="I5">
-        <v>0.5563192234828349</v>
+        <v>0.5060441395769882</v>
       </c>
       <c r="J5">
-        <v>0.5563192234828349</v>
+        <v>0.5375810938879991</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.8390448455744</v>
+        <v>31.464649</v>
       </c>
       <c r="N5">
-        <v>25.8390448455744</v>
+        <v>94.393947</v>
       </c>
       <c r="O5">
-        <v>0.4536553637087461</v>
+        <v>0.5474848135431929</v>
       </c>
       <c r="P5">
-        <v>0.4536553637087461</v>
+        <v>0.547967202152804</v>
       </c>
       <c r="Q5">
-        <v>16.8374676387592</v>
+        <v>25.86775918874533</v>
       </c>
       <c r="R5">
-        <v>16.8374676387592</v>
+        <v>232.809832698708</v>
       </c>
       <c r="S5">
-        <v>0.2523771996672727</v>
+        <v>0.2770514814009329</v>
       </c>
       <c r="T5">
-        <v>0.2523771996672727</v>
+        <v>0.2945768079480507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.222894667105339</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H6">
-        <v>0.222894667105339</v>
+        <v>2.466364</v>
       </c>
       <c r="I6">
-        <v>0.1902932689236146</v>
+        <v>0.5060441395769882</v>
       </c>
       <c r="J6">
-        <v>0.1902932689236146</v>
+        <v>0.5375810938879991</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.1183878503244</v>
+        <v>25.85484366666666</v>
       </c>
       <c r="N6">
-        <v>31.1183878503244</v>
+        <v>77.56453099999999</v>
       </c>
       <c r="O6">
-        <v>0.5463446362912538</v>
+        <v>0.4498742148381634</v>
       </c>
       <c r="P6">
-        <v>0.5463446362912538</v>
+        <v>0.4502705987955396</v>
       </c>
       <c r="Q6">
-        <v>6.936122700752883</v>
+        <v>21.25581854836489</v>
       </c>
       <c r="R6">
-        <v>6.936122700752883</v>
+        <v>191.302366935284</v>
       </c>
       <c r="S6">
-        <v>0.103965706798746</v>
+        <v>0.2276562099656515</v>
       </c>
       <c r="T6">
-        <v>0.103965706798746</v>
+        <v>0.2420569610461106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8221213333333334</v>
+      </c>
+      <c r="H7">
+        <v>2.466364</v>
+      </c>
+      <c r="I7">
+        <v>0.5060441395769882</v>
+      </c>
+      <c r="J7">
+        <v>0.5375810938879991</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.15178</v>
+      </c>
+      <c r="N7">
+        <v>0.30356</v>
+      </c>
+      <c r="O7">
+        <v>0.002640971618643699</v>
+      </c>
+      <c r="P7">
+        <v>0.001762199051656407</v>
+      </c>
+      <c r="Q7">
+        <v>0.1247815759733333</v>
+      </c>
+      <c r="R7">
+        <v>0.74868945584</v>
+      </c>
+      <c r="S7">
+        <v>0.001336448210403796</v>
+      </c>
+      <c r="T7">
+        <v>0.0009473248938378461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1257833333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.37735</v>
+      </c>
+      <c r="I8">
+        <v>0.07742399583734456</v>
+      </c>
+      <c r="J8">
+        <v>0.08224910263798711</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.464649</v>
+      </c>
+      <c r="N8">
+        <v>94.393947</v>
+      </c>
+      <c r="O8">
+        <v>0.5474848135431929</v>
+      </c>
+      <c r="P8">
+        <v>0.547967202152804</v>
+      </c>
+      <c r="Q8">
+        <v>3.957728433383333</v>
+      </c>
+      <c r="R8">
+        <v>35.61955590045</v>
+      </c>
+      <c r="S8">
+        <v>0.04238846192477753</v>
+      </c>
+      <c r="T8">
+        <v>0.04506981065211661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1257833333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.37735</v>
+      </c>
+      <c r="I9">
+        <v>0.07742399583734456</v>
+      </c>
+      <c r="J9">
+        <v>0.08224910263798711</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.85484366666666</v>
+      </c>
+      <c r="N9">
+        <v>77.56453099999999</v>
+      </c>
+      <c r="O9">
+        <v>0.4498742148381634</v>
+      </c>
+      <c r="P9">
+        <v>0.4502705987955396</v>
+      </c>
+      <c r="Q9">
+        <v>3.252108419205555</v>
+      </c>
+      <c r="R9">
+        <v>29.26897577284999</v>
+      </c>
+      <c r="S9">
+        <v>0.03483105933695861</v>
+      </c>
+      <c r="T9">
+        <v>0.03703435269520225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1257833333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.37735</v>
+      </c>
+      <c r="I10">
+        <v>0.07742399583734456</v>
+      </c>
+      <c r="J10">
+        <v>0.08224910263798711</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.15178</v>
+      </c>
+      <c r="N10">
+        <v>0.30356</v>
+      </c>
+      <c r="O10">
+        <v>0.002640971618643699</v>
+      </c>
+      <c r="P10">
+        <v>0.001762199051656407</v>
+      </c>
+      <c r="Q10">
+        <v>0.01909139433333333</v>
+      </c>
+      <c r="R10">
+        <v>0.114548366</v>
+      </c>
+      <c r="S10">
+        <v>0.0002044745756084149</v>
+      </c>
+      <c r="T10">
+        <v>0.0001449392906682514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.222894667105339</v>
-      </c>
-      <c r="H7">
-        <v>0.222894667105339</v>
-      </c>
-      <c r="I7">
-        <v>0.1902932689236146</v>
-      </c>
-      <c r="J7">
-        <v>0.1902932689236146</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.8390448455744</v>
-      </c>
-      <c r="N7">
-        <v>25.8390448455744</v>
-      </c>
-      <c r="O7">
-        <v>0.4536553637087461</v>
-      </c>
-      <c r="P7">
-        <v>0.4536553637087461</v>
-      </c>
-      <c r="Q7">
-        <v>5.759385299174231</v>
-      </c>
-      <c r="R7">
-        <v>5.759385299174231</v>
-      </c>
-      <c r="S7">
-        <v>0.08632756212486863</v>
-      </c>
-      <c r="T7">
-        <v>0.08632756212486863</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.28592</v>
+      </c>
+      <c r="H11">
+        <v>0.57184</v>
+      </c>
+      <c r="I11">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J11">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.464649</v>
+      </c>
+      <c r="N11">
+        <v>94.393947</v>
+      </c>
+      <c r="O11">
+        <v>0.5474848135431929</v>
+      </c>
+      <c r="P11">
+        <v>0.547967202152804</v>
+      </c>
+      <c r="Q11">
+        <v>8.99637244208</v>
+      </c>
+      <c r="R11">
+        <v>53.97823465248</v>
+      </c>
+      <c r="S11">
+        <v>0.09635385477831504</v>
+      </c>
+      <c r="T11">
+        <v>0.06829924611979957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.28592</v>
+      </c>
+      <c r="H12">
+        <v>0.57184</v>
+      </c>
+      <c r="I12">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J12">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.85484366666666</v>
+      </c>
+      <c r="N12">
+        <v>77.56453099999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4498742148381634</v>
+      </c>
+      <c r="P12">
+        <v>0.4502705987955396</v>
+      </c>
+      <c r="Q12">
+        <v>7.392416901173333</v>
+      </c>
+      <c r="R12">
+        <v>44.35450140704</v>
+      </c>
+      <c r="S12">
+        <v>0.07917500849839572</v>
+      </c>
+      <c r="T12">
+        <v>0.05612223200006482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.28592</v>
+      </c>
+      <c r="H13">
+        <v>0.57184</v>
+      </c>
+      <c r="I13">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J13">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.15178</v>
+      </c>
+      <c r="N13">
+        <v>0.30356</v>
+      </c>
+      <c r="O13">
+        <v>0.002640971618643699</v>
+      </c>
+      <c r="P13">
+        <v>0.001762199051656407</v>
+      </c>
+      <c r="Q13">
+        <v>0.0433969376</v>
+      </c>
+      <c r="R13">
+        <v>0.1735877504</v>
+      </c>
+      <c r="S13">
+        <v>0.0004647942546014945</v>
+      </c>
+      <c r="T13">
+        <v>0.0002196424644911432</v>
       </c>
     </row>
   </sheetData>
